--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_0_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_0_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.153955330821191e-07</v>
+        <v>0.0001917361827612485</v>
       </c>
       <c r="I2" t="n">
-        <v>4.153955330821191e-07</v>
+        <v>0.0001917361827612485</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>57.05460086281923</v>
+        <v>50.93300869671616</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.10354902091173, 78.00565270472673]</t>
+          <t>[19.549681799370816, 82.3163355940615]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.803485423446105e-06</v>
+        <v>0.002073918683734632</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803485423446105e-06</v>
+        <v>0.002073918683734632</v>
       </c>
       <c r="P2" t="n">
-        <v>1.478026573760963</v>
+        <v>2.056658253701427</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0251843894597323, 1.9308687580621937]</t>
+          <t>[1.4528686746331179, 2.6604478327697354]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.378196138965507e-08</v>
+        <v>1.641021252218877e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>4.378196138965507e-08</v>
+        <v>1.641021252218877e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>66.41134788109169</v>
+        <v>63.29660530194285</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[53.44009556075329, 79.38260020143008]</t>
+          <t>[46.720280901567776, 79.87292970231792]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.969535645685028e-13</v>
+        <v>9.7506447360729e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.969535645685028e-13</v>
+        <v>9.7506447360729e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>19.54738738738781</v>
+        <v>17.48276276276318</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.70522522522561</v>
+        <v>14.98522522522558</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.38954954955001</v>
+        <v>19.98030030030078</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7.72922660439157e-05</v>
+        <v>3.5009012053e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>7.72922660439157e-05</v>
+        <v>3.5009012053e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.37586957271288</v>
+        <v>58.11955522168175</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.219728993930758, 75.532010151495]</t>
+          <t>[28.92021397864555, 87.31889646471795]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0008183495022306975</v>
+        <v>0.0002268584270908036</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008183495022306975</v>
+        <v>0.0002268584270908036</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8490790955648082</v>
+        <v>1.327079178993888</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.3207632138800385, 1.377394977249578]</t>
+          <t>[0.7232895999255788, 1.9308687580621964]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.002270104082773727</v>
+        <v>6.029597441026269e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002270104082773727</v>
+        <v>6.029597441026269e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>62.84770770295439</v>
+        <v>61.41434507358598</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.81660576443319, 76.87880964147558]</t>
+          <t>[44.80468157602223, 78.02400857114972]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.181521547266584e-11</v>
+        <v>2.223980333226905e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.181521547266584e-11</v>
+        <v>2.223980333226905e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>22.10594594594643</v>
+        <v>20.50062062062111</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.95675675675719</v>
+        <v>18.00308308308351</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.25513513513567</v>
+        <v>22.99815815815871</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002359701148831883</v>
+        <v>3.127127655710993e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002359701148831883</v>
+        <v>3.127127655710993e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>42.36014305401076</v>
+        <v>53.03690071003057</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.515904368040808, 65.20438173998072]</t>
+          <t>[30.846534427878552, 75.22726699218259]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0005266642857499892</v>
+        <v>1.705007434504857e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005266642857499892</v>
+        <v>1.705007434504857e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2830263651882694</v>
+        <v>0.7610264486173479</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.3333421634439624, 0.8993948938205012]</t>
+          <t>[0.37107901213573236, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.359980549988677</v>
+        <v>0.0002891508033022738</v>
       </c>
       <c r="S4" t="n">
-        <v>0.359980549988677</v>
+        <v>0.0002891508033022738</v>
       </c>
       <c r="T4" t="n">
-        <v>54.92468168242465</v>
+        <v>53.2694087833953</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.950205779580884, 67.89915758526841]</t>
+          <t>[41.9641588292026, 64.574658737588]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.984390760715996e-11</v>
+        <v>2.608802063264193e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>5.984390760715996e-11</v>
+        <v>2.608802063264193e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>24.40864864864918</v>
+        <v>22.84206206206261</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.90126126126174</v>
+        <v>21.22906906906958</v>
       </c>
       <c r="Z4" t="n">
-        <v>26.91603603603662</v>
+        <v>24.45505505505564</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.075432434853422e-05</v>
+        <v>5.545352655333957e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>5.075432434853422e-05</v>
+        <v>5.545352655333957e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.97074198057086</v>
+        <v>56.44680405018264</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[27.352889156436447, 76.58859480470527]</t>
+          <t>[28.895101740508323, 83.99850635985695]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001055542157597511</v>
+        <v>0.0001570482102462023</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001055542157597511</v>
+        <v>0.0001570482102462023</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1320789704211922</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.42139481039142446, 0.6855527512338089]</t>
+          <t>[-0.3710790121357306, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.6331021446504206</v>
+        <v>0.5102440563537138</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6331021446504206</v>
+        <v>0.5102440563537138</v>
       </c>
       <c r="T5" t="n">
-        <v>68.58530103158766</v>
+        <v>78.2070842637626</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.20827893313447, 82.96232313004086]</t>
+          <t>[62.65536400248496, 93.75880452504023]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.791233827930228e-12</v>
+        <v>3.479438959175241e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.791233827930228e-12</v>
+        <v>3.479438959175241e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>25.02270270270325</v>
+        <v>25.23553553553614</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.77117117117167</v>
+        <v>22.94612612612668</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.27423423423483</v>
+        <v>27.5249449449456</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.868562738271962e-05</v>
+        <v>0.000984022428868192</v>
       </c>
       <c r="I6" t="n">
-        <v>1.868562738271962e-05</v>
+        <v>0.000984022428868192</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.30116457632328</v>
+        <v>46.22644032048697</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.384560885820363, 76.2177682668262]</t>
+          <t>[19.944762351083327, 72.50811828989062]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0001472472628891719</v>
+        <v>0.0009361800686653599</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001472472628891719</v>
+        <v>0.0009361800686653599</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3144737390980774</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.8302106712189241, 0.2012631930227693]</t>
+          <t>[-0.7987632973091179, 0.6226580034141938]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2257899363334719</v>
+        <v>0.8040825945181713</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2257899363334719</v>
+        <v>0.8040825945181713</v>
       </c>
       <c r="T6" t="n">
-        <v>59.03750878946913</v>
+        <v>61.8356032817584</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.39785917781214, 72.67715840112612]</t>
+          <t>[45.95237255791106, 77.71883400560573]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.185718355780409e-11</v>
+        <v>5.875233632934851e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>3.185718355780409e-11</v>
+        <v>5.875233632934851e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>1.279279279279308</v>
+        <v>0.364224224224234</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.8187387387387548</v>
+        <v>-2.57558558558565</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.377297297297371</v>
+        <v>3.304034034034118</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000391102582682934</v>
+        <v>8.482601002723911e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000391102582682934</v>
+        <v>8.482601002723911e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.26975665397428</v>
+        <v>52.13179424583979</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[14.265258519130711, 66.27425478881786]</t>
+          <t>[22.16279319266613, 82.10079529901346]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.003162279934139312</v>
+        <v>0.00105034959879835</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003162279934139312</v>
+        <v>0.00105034959879835</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6666843268879239</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, -0.0503157982556921]</t>
+          <t>[-1.0692107129334634, 0.06289474781961601]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.03464550228338803</v>
+        <v>0.08013264357139449</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03464550228338803</v>
+        <v>0.08013264357139449</v>
       </c>
       <c r="T7" t="n">
-        <v>53.7014113613196</v>
+        <v>56.46871175451833</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.33162714959341, 67.0711955730458]</t>
+          <t>[41.002328490674415, 71.93509501836225]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.55137910798453e-10</v>
+        <v>3.055205644031389e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.55137910798453e-10</v>
+        <v>3.055205644031389e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>2.712072072072132</v>
+        <v>2.081281281281331</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2046846846846897</v>
+        <v>-0.2601601601601682</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.219459459459575</v>
+        <v>4.422722722722831</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.816207738704946e-08</v>
+        <v>2.063498254489815e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>3.816207738704946e-08</v>
+        <v>2.063498254489815e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>58.08076513093524</v>
+        <v>47.72349955150602</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[35.34926405147716, 80.81226621039332]</t>
+          <t>[28.35218886301439, 67.09481023999766]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.645274840704317e-06</v>
+        <v>1.043948896839453e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>5.645274840704317e-06</v>
+        <v>1.043948896839453e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.8050527720910781</v>
+        <v>-1.25789495639231</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.1824212590087706, -0.4276842851733855]</t>
+          <t>[-1.6981581911296182, -0.8176317216550011]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>9.151743758617492e-05</v>
+        <v>7.214686643663981e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>9.151743758617492e-05</v>
+        <v>7.214686643663981e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>57.14883899222494</v>
+        <v>52.57426220678582</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.36803378120662, 68.92964420324326]</t>
+          <t>[41.87330236465812, 63.27522204891351]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.070921129553426e-12</v>
+        <v>7.223110998211268e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.070921129553426e-12</v>
+        <v>7.223110998211268e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>3.274954954955025</v>
+        <v>5.20320320320333</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.739819819819857</v>
+        <v>3.382082082082164</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.810090090090192</v>
+        <v>7.024324324324496</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.99000000000062</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>5.995854837292924e-06</v>
+        <v>2.583200835570842e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>5.995854837292924e-06</v>
+        <v>2.583200835570842e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.03533983365384</v>
+        <v>60.07767044658139</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[25.92117923161831, 76.14950043568938]</t>
+          <t>[31.354985862680596, 88.80035503048218]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0001744772649225901</v>
+        <v>0.0001195414907249059</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001744772649225901</v>
+        <v>0.0001195414907249059</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.5660527303765388</v>
+        <v>-0.704421175579693</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.0566317633695395, -0.07547369738353815]</t>
+          <t>[-1.1698423094448476, -0.23900004171453837]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02470138780729747</v>
+        <v>0.003844672146208872</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02470138780729747</v>
+        <v>0.003844672146208872</v>
       </c>
       <c r="T9" t="n">
-        <v>63.5542118346652</v>
+        <v>65.85651588661514</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.5327221671646, 76.5757015021658]</t>
+          <t>[51.10271214723895, 80.61031962599134]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.8662410746565e-13</v>
+        <v>1.307509656101047e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>8.8662410746565e-13</v>
+        <v>1.307509656101047e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>2.341441441441496</v>
+        <v>2.8790390390391</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3121921921921986</v>
+        <v>0.9768168168168345</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.370690690690794</v>
+        <v>4.781261261261365</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.99000000000062</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.019772217336623e-06</v>
+        <v>0.0009530306428154889</v>
       </c>
       <c r="I10" t="n">
-        <v>1.019772217336623e-06</v>
+        <v>0.0009530306428154889</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>57.44616027770964</v>
+        <v>42.12068894969972</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.842911836893535, 82.04940871852575]</t>
+          <t>[18.101524740630467, 66.13985315876897]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.457852845516584e-05</v>
+        <v>0.000965943272999592</v>
       </c>
       <c r="O10" t="n">
-        <v>2.457852845516584e-05</v>
+        <v>0.000965943272999592</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.270473905956233</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7610529389492333, -0.779894872963232]</t>
+          <t>[-2.427737265837157, -0.8176317216550011]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.466604816011355e-06</v>
+        <v>0.00019363775407788</v>
       </c>
       <c r="S10" t="n">
-        <v>4.466604816011355e-06</v>
+        <v>0.00019363775407788</v>
       </c>
       <c r="T10" t="n">
-        <v>56.66853490801917</v>
+        <v>63.50333393952781</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.797419626312546, 70.53965018972579]</t>
+          <t>[48.18388043742501, 78.82278744163062]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.607463051556124e-10</v>
+        <v>1.076201350258543e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.607463051556124e-10</v>
+        <v>1.076201350258543e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>5.255235235235361</v>
+        <v>6.632072072072219</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.225985985986063</v>
+        <v>3.341741741741815</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.284484484484659</v>
+        <v>9.922402402402623</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.99000000000062</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.990629846506444e-05</v>
+        <v>0.001292858091501148</v>
       </c>
       <c r="I11" t="n">
-        <v>3.990629846506444e-05</v>
+        <v>0.001292858091501148</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>61.55624437668491</v>
+        <v>42.88256448256066</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[32.712696766605646, 90.39979198676417]</t>
+          <t>[14.064511999093341, 71.70061696602798]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>9.104246513924608e-05</v>
+        <v>0.00442469251483768</v>
       </c>
       <c r="O11" t="n">
-        <v>9.104246513924608e-05</v>
+        <v>0.00442469251483768</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.471737098979002</v>
+        <v>-1.245316006828387</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.088105627611233, -0.855368570346771]</t>
+          <t>[-2.0000529806637726, -0.49057903299300065]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.731634675894433e-05</v>
+        <v>0.001774458769027376</v>
       </c>
       <c r="S11" t="n">
-        <v>1.731634675894433e-05</v>
+        <v>0.001774458769027376</v>
       </c>
       <c r="T11" t="n">
-        <v>65.84071698493483</v>
+        <v>66.18269076825302</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.76603011672486, 83.9154038531448]</t>
+          <t>[50.05917517966361, 82.30620635684244]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.235055112682517e-09</v>
+        <v>1.411708527854216e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>3.235055112682517e-09</v>
+        <v>1.411708527854216e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>6.087747747747894</v>
+        <v>5.089729729729843</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.538178178178267</v>
+        <v>2.005045045045089</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.637317317317521</v>
+        <v>8.174414414414597</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_0_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_0_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001917361827612485</v>
+        <v>0.0002826026953096639</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001917361827612485</v>
+        <v>0.0002826026953096639</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>50.93300869671616</v>
+        <v>43.09175108672403</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.549681799370816, 82.3163355940615]</t>
+          <t>[21.236147822720284, 64.94735435072778]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002073918683734632</v>
+        <v>0.0002551698795540958</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002073918683734632</v>
+        <v>0.0002551698795540958</v>
       </c>
       <c r="P2" t="n">
-        <v>2.056658253701427</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 2.6604478327697354]</t>
+          <t>[0.8993948938205012, 2.358553043235581]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.641021252218877e-08</v>
+        <v>4.806402938051235e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.641021252218877e-08</v>
+        <v>4.806402938051235e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>63.29660530194285</v>
+        <v>48.29187377924007</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.720280901567776, 79.87292970231792]</t>
+          <t>[33.98897059448096, 62.59477696399918]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.7506447360729e-10</v>
+        <v>2.016058808784749e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>9.7506447360729e-10</v>
+        <v>2.016058808784749e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>17.48276276276318</v>
+        <v>19.00740740740783</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.98522522522558</v>
+        <v>16.02786786786822</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.98030030030078</v>
+        <v>21.98694694694744</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5009012053e-05</v>
+        <v>0.00516363199431491</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5009012053e-05</v>
+        <v>0.00516363199431491</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>58.11955522168175</v>
+        <v>34.27634086058777</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[28.92021397864555, 87.31889646471795]</t>
+          <t>[6.659079510573477, 61.893602210602054]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0002268584270908036</v>
+        <v>0.01614214486247367</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0002268584270908036</v>
+        <v>0.01614214486247367</v>
       </c>
       <c r="P3" t="n">
-        <v>1.327079178993888</v>
+        <v>0.8742369946926551</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7232895999255788, 1.9308687580621964]</t>
+          <t>[0.1823947686768861, 1.5660792207084242]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.029597441026269e-05</v>
+        <v>0.01442314635135311</v>
       </c>
       <c r="S3" t="n">
-        <v>6.029597441026269e-05</v>
+        <v>0.01442314635135311</v>
       </c>
       <c r="T3" t="n">
-        <v>61.41434507358598</v>
+        <v>51.93925336639114</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.80468157602223, 78.02400857114972]</t>
+          <t>[37.91598569717027, 65.96252103561201]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.223980333226905e-09</v>
+        <v>2.130538190314724e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.223980333226905e-09</v>
+        <v>2.130538190314724e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>20.50062062062111</v>
+        <v>22.08968968969018</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.00308308308351</v>
+        <v>19.2642642642647</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.99815815815871</v>
+        <v>24.91511511511566</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.127127655710993e-07</v>
+        <v>3.022392337181934e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>3.127127655710993e-07</v>
+        <v>3.022392337181934e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>53.03690071003057</v>
+        <v>57.91652949501041</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[30.846534427878552, 75.22726699218259]</t>
+          <t>[30.85034224036113, 84.98271674965969]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.705007434504857e-05</v>
+        <v>8.778237695761248e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.705007434504857e-05</v>
+        <v>8.778237695761248e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7610264486173479</v>
+        <v>0.6603948521059628</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.37107901213573236, 1.1509738850989635]</t>
+          <t>[0.20755266780473125, 1.1132370364071944]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0002891508033022738</v>
+        <v>0.005204647313992172</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002891508033022738</v>
+        <v>0.005204647313992172</v>
       </c>
       <c r="T4" t="n">
-        <v>53.2694087833953</v>
+        <v>67.96602260263055</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.9641588292026, 64.574658737588]</t>
+          <t>[54.187921159196094, 81.744124046065]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.608802063264193e-12</v>
+        <v>6.368239269249898e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.608802063264193e-12</v>
+        <v>6.368239269249898e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>22.84206206206261</v>
+        <v>22.96300300300351</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.22906906906958</v>
+        <v>21.1136336336341</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.45505505505564</v>
+        <v>24.81237237237293</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.545352655333957e-05</v>
+        <v>0.0004044220165689838</v>
       </c>
       <c r="I5" t="n">
-        <v>5.545352655333957e-05</v>
+        <v>0.0004044220165689838</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>56.44680405018264</v>
+        <v>43.88311858569692</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[28.895101740508323, 83.99850635985695]</t>
+          <t>[18.26926182365949, 69.49697534773435]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001570482102462023</v>
+        <v>0.001226679261981056</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001570482102462023</v>
+        <v>0.001226679261981056</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1823947686768852</v>
+        <v>-0.2390000417145393</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.3710790121357306, 0.735868549489501]</t>
+          <t>[-0.9056843686024632, 0.42768428517338464]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.5102440563537138</v>
+        <v>0.4740071934709287</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5102440563537138</v>
+        <v>0.4740071934709287</v>
       </c>
       <c r="T5" t="n">
-        <v>78.2070842637626</v>
+        <v>56.22820615008398</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[62.65536400248496, 93.75880452504023]</t>
+          <t>[42.02196574159323, 70.43444655857473]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.479438959175241e-13</v>
+        <v>3.788704905360873e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>3.479438959175241e-13</v>
+        <v>3.788704905360873e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>25.23553553553614</v>
+        <v>0.9760560560560769</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.94612612612668</v>
+        <v>-1.746626626626666</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.5249449449456</v>
+        <v>3.69873873873882</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000984022428868192</v>
+        <v>0.0009434826628003101</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000984022428868192</v>
+        <v>0.0009434826628003101</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.22644032048697</v>
+        <v>52.70673409347149</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[19.944762351083327, 72.50811828989062]</t>
+          <t>[23.145669173715348, 82.26779901322763]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0009361800686653599</v>
+        <v>0.0008106313405489285</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0009361800686653599</v>
+        <v>0.0008106313405489285</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.08805264694746207</v>
+        <v>-0.006289474781961957</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.7987632973091179, 0.6226580034141938]</t>
+          <t>[-0.7484474990534249, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8040825945181713</v>
+        <v>0.9864572859420975</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8040825945181713</v>
+        <v>0.9864572859420975</v>
       </c>
       <c r="T6" t="n">
-        <v>61.8356032817584</v>
+        <v>67.41352792502362</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.95237255791106, 77.71883400560573]</t>
+          <t>[49.40664364672739, 85.42041220331984]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.875233632934851e-10</v>
+        <v>1.621865974854586e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>5.875233632934851e-10</v>
+        <v>1.621865974854586e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>0.364224224224234</v>
+        <v>0.02568568568569063</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.57558558558565</v>
+        <v>-3.005225225225289</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.304034034034118</v>
+        <v>3.05659659659667</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>8.482601002723911e-05</v>
+        <v>0.0005784213421858864</v>
       </c>
       <c r="I7" t="n">
-        <v>8.482601002723911e-05</v>
+        <v>0.0005784213421858864</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>52.13179424583979</v>
+        <v>54.60713538066143</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[22.16279319266613, 82.10079529901346]</t>
+          <t>[20.079862426745663, 89.13440833457719]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.00105034959879835</v>
+        <v>0.002625629877422542</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00105034959879835</v>
+        <v>0.002625629877422542</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5031579825569237</v>
+        <v>-0.5534737808126167</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0692107129334634, 0.06289474781961601]</t>
+          <t>[-1.2075791581366175, 0.1006315965113842]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.08013264357139449</v>
+        <v>0.09523263670539106</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08013264357139449</v>
+        <v>0.09523263670539106</v>
       </c>
       <c r="T7" t="n">
-        <v>56.46871175451833</v>
+        <v>60.65055835222863</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.002328490674415, 71.93509501836225]</t>
+          <t>[42.08265758390145, 79.2184591205558]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.055205644031389e-09</v>
+        <v>4.302424150282036e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.055205644031389e-09</v>
+        <v>4.302424150282036e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>2.081281281281331</v>
+        <v>2.260340340340395</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.2601601601601682</v>
+        <v>-0.410970970970975</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.422722722722831</v>
+        <v>4.931651651651766</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.063498254489815e-07</v>
+        <v>0.001009246029506361</v>
       </c>
       <c r="I8" t="n">
-        <v>2.063498254489815e-07</v>
+        <v>0.001009246029506361</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.72349955150602</v>
+        <v>40.22846261638077</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[28.35218886301439, 67.09481023999766]</t>
+          <t>[11.370806859503702, 69.08611837325785]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.043948896839453e-05</v>
+        <v>0.007351721674660805</v>
       </c>
       <c r="O8" t="n">
-        <v>1.043948896839453e-05</v>
+        <v>0.007351721674660805</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.25789495639231</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.6981581911296182, -0.8176317216550011]</t>
+          <t>[-1.6478423928739252, -0.33963163822592346]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.214686643663981e-07</v>
+        <v>0.00372466504905189</v>
       </c>
       <c r="S8" t="n">
-        <v>7.214686643663981e-07</v>
+        <v>0.00372466504905189</v>
       </c>
       <c r="T8" t="n">
-        <v>52.57426220678582</v>
+        <v>68.26073478625892</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.87330236465812, 63.27522204891351]</t>
+          <t>[53.554886467218466, 82.96658310529938]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.223110998211268e-13</v>
+        <v>4.102718165199803e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>7.223110998211268e-13</v>
+        <v>4.102718165199803e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>5.20320320320333</v>
+        <v>4.058338338338427</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.382082082082164</v>
+        <v>1.387027027027056</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.024324324324496</v>
+        <v>6.729649649649797</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.68000000000058</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.583200835570842e-06</v>
+        <v>3.876446837325354e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>2.583200835570842e-06</v>
+        <v>3.876446837325354e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>60.07767044658139</v>
+        <v>48.81041554877093</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.354985862680596, 88.80035503048218]</t>
+          <t>[22.835889878088096, 74.78494121945376]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0001195414907249059</v>
+        <v>0.0004523977666219814</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001195414907249059</v>
+        <v>0.0004523977666219814</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.704421175579693</v>
+        <v>-1.132105460753078</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1698423094448476, -0.23900004171453837]</t>
+          <t>[-1.6855792415656943, -0.5786316799404627]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.003844672146208872</v>
+        <v>0.0001603721358718335</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003844672146208872</v>
+        <v>0.0001603721358718335</v>
       </c>
       <c r="T9" t="n">
-        <v>65.85651588661514</v>
+        <v>55.74059585379172</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[51.10271214723895, 80.61031962599134]</t>
+          <t>[41.73566995035692, 69.74552175722651]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.307509656101047e-11</v>
+        <v>3.264162273808324e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.307509656101047e-11</v>
+        <v>3.264162273808324e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>2.8790390390391</v>
+        <v>4.513513513513601</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9768168168168345</v>
+        <v>2.306906906906954</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.781261261261365</v>
+        <v>6.720120120120248</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.68000000000058</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009530306428154889</v>
+        <v>2.922236115177057e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0009530306428154889</v>
+        <v>2.922236115177057e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>42.12068894969972</v>
+        <v>60.07909076688461</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[18.101524740630467, 66.13985315876897]</t>
+          <t>[33.40166455328742, 86.7565169804818]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.000965943272999592</v>
+        <v>4.237193553713325e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.000965943272999592</v>
+        <v>4.237193553713325e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.622684493746079</v>
+        <v>-1.54721079636254</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.427737265837157, -0.8176317216550011]</t>
+          <t>[-2.125842476303002, -0.9685791164220783]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.00019363775407788</v>
+        <v>2.523522335540207e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00019363775407788</v>
+        <v>2.523522335540207e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>63.50333393952781</v>
+        <v>70.04465198682252</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[48.18388043742501, 78.82278744163062]</t>
+          <t>[53.077842167453426, 87.0114618061916]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.076201350258543e-10</v>
+        <v>1.205320288022449e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.076201350258543e-10</v>
+        <v>1.205320288022449e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>6.632072072072219</v>
+        <v>6.168468468468582</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.341741741741815</v>
+        <v>3.861561561561633</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.922402402402623</v>
+        <v>8.475375375375531</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.68000000000058</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001292858091501148</v>
+        <v>3.22128743224237e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001292858091501148</v>
+        <v>3.22128743224237e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>42.88256448256066</v>
+        <v>46.94522016084412</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[14.064511999093341, 71.70061696602798]</t>
+          <t>[24.781512049332946, 69.10892827235529]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.00442469251483768</v>
+        <v>0.0001009144635737425</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00442469251483768</v>
+        <v>0.0001009144635737425</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.245316006828387</v>
+        <v>-1.660421342437848</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.0000529806637726, -0.49057903299300065]</t>
+          <t>[-2.213895123250465, -1.1069475616252316]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.001774458769027376</v>
+        <v>2.701879100452942e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001774458769027376</v>
+        <v>2.701879100452942e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>66.18269076825302</v>
+        <v>63.45868689683932</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.05917517966361, 82.30620635684244]</t>
+          <t>[50.15302204263952, 76.76435175103913]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.411708527854216e-10</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.411708527854216e-10</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>5.089729729729843</v>
+        <v>6.619819819819945</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.005045045045089</v>
+        <v>4.413213213213295</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.174414414414597</v>
+        <v>8.826426426426595</v>
       </c>
     </row>
   </sheetData>
